--- a/Data/Regression/news_index_dire_lex.xlsx
+++ b/Data/Regression/news_index_dire_lex.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1944636909678849</v>
+        <v>0.1981570144477677</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2779065967013785</v>
+        <v>0.1816518171629132</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2588538655390115</v>
+        <v>0.1698002074761433</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2007626968523072</v>
+        <v>0.1969432854308595</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1203264762301831</v>
+        <v>0.1556063997819</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1891744694535782</v>
+        <v>0.1849775125388257</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2077109460844949</v>
+        <v>0.1625237868828682</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2755372926246621</v>
+        <v>0.2179502250842643</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2068488817072273</v>
+        <v>0.1604503556042303</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1886182734882359</v>
+        <v>0.1607871034155206</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2025935947082513</v>
+        <v>0.184370624221894</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1837876221299655</v>
+        <v>0.1703474667784166</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1297150502553246</v>
+        <v>0.1882354585458069</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2498493223993361</v>
+        <v>0.1775616747338542</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2584479773288619</v>
+        <v>0.1802650454785018</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2232849751206293</v>
+        <v>0.1714857095628375</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1922614192624303</v>
+        <v>0.1675230348811237</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2395975885252578</v>
+        <v>0.1453421018923775</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1730457389869665</v>
+        <v>0.1466819159594089</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1709263226861571</v>
+        <v>0.1474236866495024</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1244279382416125</v>
+        <v>0.1393436862974832</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2017572819012716</v>
+        <v>0.1833281683566126</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.240703893789309</v>
+        <v>0.1478655074846048</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2311131054449539</v>
+        <v>0.1763033964215346</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2196208577626611</v>
+        <v>0.1936863955824893</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2623995940673512</v>
+        <v>0.1693566448607317</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2318222132206631</v>
+        <v>0.1727263577239028</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1876469238537736</v>
+        <v>0.1671148734104455</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1757850264390329</v>
+        <v>0.1723286648009437</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1662542726879053</v>
+        <v>0.1939579003055655</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1680313045762283</v>
+        <v>0.1676383312129595</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2236655420363586</v>
+        <v>0.1628654972006056</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1598245030622115</v>
+        <v>0.1969063039157287</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1661364440863991</v>
+        <v>0.1559649694877581</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2035870534968889</v>
+        <v>0.1480565744440515</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2671330580269198</v>
+        <v>0.1457091419229701</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1994668881776082</v>
+        <v>0.1544434429494313</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1531853450776878</v>
+        <v>0.1663944969610993</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1813256333645719</v>
+        <v>0.1592354826030443</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1866642358519891</v>
+        <v>0.1475721138833044</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1523167124345691</v>
+        <v>0.1820354122438616</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1734598166170579</v>
+        <v>0.1550691522223958</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2311116401984806</v>
+        <v>0.1702397743494985</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2049966420650371</v>
+        <v>0.1746416801002016</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1531775464358627</v>
+        <v>0.177536398219032</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1378553441737817</v>
+        <v>0.154860803498917</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.174588811125985</v>
+        <v>0.1691060128005157</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1130895201977535</v>
+        <v>0.1726178669370611</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1819358131965042</v>
+        <v>0.172448716483277</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1753557332841324</v>
+        <v>0.16923102345663</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1583401770184734</v>
+        <v>0.1615913246554163</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1436953271665356</v>
+        <v>0.15267715581456</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1552188863395047</v>
+        <v>0.1539788247316862</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1715282809352048</v>
+        <v>0.1651069164379068</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1676325426967521</v>
+        <v>0.1455140035925207</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1299379601550563</v>
+        <v>0.1506527597780444</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2361966765334085</v>
+        <v>0.1640337260243516</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2191361977636517</v>
+        <v>0.1457172221958021</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1674747871739699</v>
+        <v>0.1325566790099702</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0551219421634609</v>
+        <v>0.1645281098190539</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1256938859177265</v>
+        <v>0.1371754294823609</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0322601622827388</v>
+        <v>0.1391690761532075</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2116234466439881</v>
+        <v>0.1336432079256444</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1460354423635885</v>
+        <v>0.1540665730592886</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.07431147555052041</v>
+        <v>0.1187711909887488</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2005699622870241</v>
+        <v>0.1496267547090792</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2504947124637628</v>
+        <v>0.1269339297065314</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.06156061255818943</v>
+        <v>0.1697050051513893</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1997657916787699</v>
+        <v>0.1572404138029295</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09104465919931387</v>
+        <v>0.1750590893676803</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2223885368184189</v>
+        <v>0.1609393368553966</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1756400205774377</v>
+        <v>0.1229015501007254</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2197639408544916</v>
+        <v>0.1752164793038817</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1856188779376854</v>
+        <v>0.153870075376509</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1387534152980897</v>
+        <v>0.1134100249063384</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1467485082527554</v>
+        <v>0.1420396196608816</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2377052302138371</v>
+        <v>0.1639455605080976</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.173490824542412</v>
+        <v>0.18373813591591</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2383849548788718</v>
+        <v>0.1559228427871869</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1792166762715537</v>
+        <v>0.1770307932045131</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2234354285482252</v>
+        <v>0.1467528290477769</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1756436921504423</v>
+        <v>0.1471538393086851</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2557927413720005</v>
+        <v>0.1499333779145894</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1372368917474224</v>
+        <v>0.1353000403097711</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.140288108718692</v>
+        <v>0.1004785576276946</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1228060172948644</v>
+        <v>0.1599814589015491</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1949066042316748</v>
+        <v>0.1741100561625191</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2178769834293019</v>
+        <v>0.1253387943625082</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1744300352975345</v>
+        <v>0.1662888827072967</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.170665650959919</v>
+        <v>0.1575152668653787</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1889317993296006</v>
+        <v>0.1145409068712169</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.166869282544323</v>
+        <v>0.165664533257237</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.2031139139798793</v>
+        <v>0.1180665832814654</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1016484979590076</v>
+        <v>0.1483677996125271</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2232721398671328</v>
+        <v>0.1299625438682613</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1052136433172166</v>
+        <v>0.1238398006247236</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1396049271672167</v>
+        <v>0.1537246516021551</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1491606643738983</v>
+        <v>0.08728093303500377</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1420626438594867</v>
+        <v>0.1747901741544072</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.229236868703026</v>
+        <v>0.1740475577604544</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2392032772235995</v>
+        <v>0.1722146847805428</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2039932772552222</v>
+        <v>0.1447057544837105</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.202660468774274</v>
+        <v>0.1413750804879749</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2460394619449499</v>
+        <v>0.1542801751551819</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.2587061606724088</v>
+        <v>0.157781925762165</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.243385461704895</v>
+        <v>0.1529483728028659</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1401658980867537</v>
+        <v>0.1321764183408796</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2756194520859065</v>
+        <v>0.1656978619092883</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1830385548268877</v>
+        <v>0.1566104601165354</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2057677177417694</v>
+        <v>0.1571810985048797</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.2268631451754685</v>
+        <v>0.170000820509319</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1413971283654452</v>
+        <v>0.1498312561914896</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1717144923274639</v>
+        <v>0.1571197033838568</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1280442471045727</v>
+        <v>0.1781025247281162</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1575371587875034</v>
+        <v>0.1208238891986576</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.2083934557251911</v>
+        <v>0.1788320029995438</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.2044542240730318</v>
+        <v>0.2007254143462292</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1998470090724707</v>
+        <v>0.1845710306921231</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1951593753634598</v>
+        <v>0.1501332970476366</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.2076731154255465</v>
+        <v>0.1703775742914771</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1338572259067132</v>
+        <v>0.2034627007306384</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2331941535805336</v>
+        <v>0.2522519748015271</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1770403409083332</v>
+        <v>0.1599069158806662</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.2096676930370459</v>
+        <v>0.194625049845342</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1435230470479413</v>
+        <v>0.1729158998263525</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1772015165676823</v>
+        <v>0.1722503824559811</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1738169627172577</v>
+        <v>0.1721879416828314</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.177140026656975</v>
+        <v>0.1616500033805007</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1551894842598647</v>
+        <v>0.1694723765724758</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1227789630857384</v>
+        <v>0.09436468161593889</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1669856570260111</v>
+        <v>0.144322389947333</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1959652575237632</v>
+        <v>0.1654118818785244</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.2174364620662747</v>
+        <v>0.1977931577763676</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1880712214788884</v>
+        <v>0.1661198439049706</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.212023594401343</v>
+        <v>0.2109548081098407</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1491965682933711</v>
+        <v>0.1456539710751965</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1551456838204877</v>
+        <v>0.1789559204660827</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1527306135230453</v>
+        <v>0.1555527705227404</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1518496308762252</v>
+        <v>0.185831023675158</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.14262565164409</v>
+        <v>0.144204651820816</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1682873184968698</v>
+        <v>0.1359070640032347</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1829622733201837</v>
+        <v>0.1340986862273201</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.1799573177031623</v>
+        <v>0.1149402214328955</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1708558435660636</v>
+        <v>0.1555362072040768</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1775194473089483</v>
+        <v>0.1581451212994945</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.2342986354894179</v>
+        <v>0.2047496388926681</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1665591052401496</v>
+        <v>0.1713540225374806</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1029636394463187</v>
+        <v>0.1592703069063564</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.08149537467404643</v>
+        <v>0.06316184832417271</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.1226990478921108</v>
+        <v>0.09664317421261663</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.1640669283789531</v>
+        <v>0.1174187533140096</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2111859799139033</v>
+        <v>0.1569283133635507</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1724441371249121</v>
+        <v>0.162479400504574</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1729918152710656</v>
+        <v>0.1395522617925745</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1826078695724337</v>
+        <v>0.149471656204696</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1685603839012143</v>
+        <v>0.1276581790728139</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.2259298246704683</v>
+        <v>0.1691682639776532</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1982701686377492</v>
+        <v>0.1331503111885201</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1796009383256013</v>
+        <v>0.1326145951277942</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1699098162363258</v>
+        <v>0.1579912121836163</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2651582826911297</v>
+        <v>0.201567637556381</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.2051295451154793</v>
+        <v>0.1773456292994511</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1907917839597606</v>
+        <v>0.1792577535080213</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.2227400196388736</v>
+        <v>0.246373269003085</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.2210535532333881</v>
+        <v>0.2293696236109364</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.2589441298648814</v>
+        <v>0.203019826347941</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.1819548263481274</v>
+        <v>0.1839882268232957</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2308104202304213</v>
+        <v>0.2291802289668731</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.2251610522608707</v>
+        <v>0.2353675480423482</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1928696901087479</v>
+        <v>0.1869872226313928</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1872733379427056</v>
+        <v>0.1508631274042109</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2315292492088865</v>
+        <v>0.2085060428122548</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.191816234992683</v>
+        <v>0.1510897673658544</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.213070795825654</v>
+        <v>0.1455222818783097</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.174981852078023</v>
+        <v>0.1454118986517489</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.2523167265192058</v>
+        <v>0.2025937720835207</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.2280835167424162</v>
+        <v>0.2112065642965907</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.234197431768738</v>
+        <v>0.1856527773368339</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.1416601756252697</v>
+        <v>0.2005712369543363</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.1813468849496242</v>
+        <v>0.1988628227394098</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.2341508220622029</v>
+        <v>0.1829394583629031</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.2200136305233859</v>
+        <v>0.1664934231669983</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1619514418524007</v>
+        <v>0.1987876068043786</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.1858030963470015</v>
+        <v>0.1904031499560285</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.2181096229274331</v>
+        <v>0.208563229801432</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.2208116318045455</v>
+        <v>0.1976440566696446</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.2121487978409046</v>
+        <v>0.1764801934292573</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.2090235819747491</v>
+        <v>0.2151682385629408</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1875186598619936</v>
+        <v>0.1380038177267952</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.1905936596726845</v>
+        <v>0.2044302284893537</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.1588974794121226</v>
+        <v>0.1812176188727901</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.1895109879501337</v>
+        <v>0.2189927261716672</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.1714854977284182</v>
+        <v>0.1884140606251208</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.1649255101796412</v>
+        <v>0.173364586720929</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.166856750637067</v>
+        <v>0.1661554955102748</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.1551870407990252</v>
+        <v>0.2192374275025018</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1635582127708814</v>
+        <v>0.208759568807432</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.1641461612209989</v>
+        <v>0.2254195173847935</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.1870267337378203</v>
+        <v>0.2199014929010133</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.2287862439103415</v>
+        <v>0.2280363853424101</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.2362709724292543</v>
+        <v>0.2313307070716262</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.2151642592363179</v>
+        <v>0.2444389441931645</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.2115806348702031</v>
+        <v>0.2128533854931209</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.1808331943652358</v>
+        <v>0.2192368334745332</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.2046672509488846</v>
+        <v>0.2357894931775625</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.2128154563852625</v>
+        <v>0.2163332472275256</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.1916173742948635</v>
+        <v>0.2143771278965857</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.1988983564218305</v>
+        <v>0.2023998433519534</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.2042432475466977</v>
+        <v>0.1865792802838434</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.1924095417422372</v>
+        <v>0.2348260249143813</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.1865794302278828</v>
+        <v>0.2333685241134049</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.1447008990753119</v>
+        <v>0.2118517314290504</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.146434551055083</v>
+        <v>0.2141654165437694</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.1423390201831317</v>
+        <v>0.182140997812569</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.1107997428951261</v>
+        <v>0.1312732432838166</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.1657720629472294</v>
+        <v>0.1304129450391343</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.150251690889205</v>
+        <v>0.136181028747259</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.1456171862857772</v>
+        <v>0.1908058727938502</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.1570046568687853</v>
+        <v>0.1450349721948221</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.1801832607314672</v>
+        <v>0.1384973464351789</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.2013158563994852</v>
+        <v>0.1477646367375627</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1517780818686217</v>
+        <v>0.1491948262734778</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.1508029565678108</v>
+        <v>0.153652774009992</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.1430617500732627</v>
+        <v>0.1622242468661811</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.1558216821651668</v>
+        <v>0.1283434435479806</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.148862793052848</v>
+        <v>0.172488529521616</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.20809186868625</v>
+        <v>0.1736721876374825</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.1498273122223033</v>
+        <v>0.1141356465876994</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.1849397260856736</v>
+        <v>0.1759233852273388</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.2061890372135764</v>
+        <v>0.1684525361167673</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.1771312609704883</v>
+        <v>0.1811512531979046</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.1931526045017155</v>
+        <v>0.164115858346227</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.1666240302365231</v>
+        <v>0.1716195986013405</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.1682198176978331</v>
+        <v>0.1651465922270283</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.2203151242894543</v>
+        <v>0.170728071360475</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.1528515394005741</v>
+        <v>0.1325969755657115</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.1618811544216059</v>
+        <v>0.1484449157570617</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.1862436378292312</v>
+        <v>0.1455408711637266</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.206035738344875</v>
+        <v>0.1658083451299877</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.2395830603378629</v>
+        <v>0.203320764288395</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.2010459017697727</v>
+        <v>0.2074729258649991</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.1872495052566487</v>
+        <v>0.1992247803637037</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.1655769970994519</v>
+        <v>0.1900810827752683</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.2022418910795606</v>
+        <v>0.2186263046135633</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.1841151794980646</v>
+        <v>0.1742075895933541</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.1870324132137212</v>
+        <v>0.1654385634332991</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.2005126675426815</v>
+        <v>0.1870022255837721</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.1650132313583692</v>
+        <v>0.1978106730851637</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.1637668581921975</v>
+        <v>0.157053059052113</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.1429316272822499</v>
+        <v>0.1737234100105739</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.1582526946225022</v>
+        <v>0.1530536727535272</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.1538220221576778</v>
+        <v>0.1481769704584244</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.1577417033830861</v>
+        <v>0.1647668478675943</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.204797218230401</v>
+        <v>0.1860529102508539</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.1782496740540884</v>
+        <v>0.181243985272938</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.1657520900707243</v>
+        <v>0.1812725537530643</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.1633926236405689</v>
+        <v>0.1708676352230162</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.1138766558366176</v>
+        <v>0.1372769922808859</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.1304768332381316</v>
+        <v>0.1318826230635613</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.1773196852298114</v>
+        <v>0.1602620910167504</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.1625028136634972</v>
+        <v>0.1825181514189717</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.1714566139769234</v>
+        <v>0.1510808873641715</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.1753921296248682</v>
+        <v>0.1376943032021433</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.1305433331482327</v>
+        <v>0.1509620312644777</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.1592955515871363</v>
+        <v>0.1418289037137328</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.1413716096130977</v>
+        <v>0.1428816552996854</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.09914019848777439</v>
+        <v>0.1737243979099493</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.1230971128153801</v>
+        <v>0.1216830751019534</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.08686784204498939</v>
+        <v>0.1204608992386024</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.1712215060393288</v>
+        <v>0.1584958662601582</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.1622022498287901</v>
+        <v>0.177568618512902</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.1610840105647246</v>
+        <v>0.1573459465711785</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.1168519792191418</v>
+        <v>0.1059303465417914</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.1143500155187214</v>
+        <v>0.0933528162093594</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.08339397035667308</v>
+        <v>0.07271950473753105</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.08389735739172016</v>
+        <v>0.09191909163810658</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.08813997161479098</v>
+        <v>0.07910662354617351</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.07964528253869435</v>
+        <v>0.1037903245181115</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.06013782154988322</v>
+        <v>0.02406600822239613</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.07625485581087209</v>
+        <v>0.05203900504025312</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.04405545775704723</v>
+        <v>0.05134285995237472</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.04268484313850582</v>
+        <v>0.0141205467484033</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.04525211615119856</v>
+        <v>0.08836323298854538</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.06977478421022998</v>
+        <v>0.03909414838800801</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.02196340217793465</v>
+        <v>-0.004577973584476018</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.04093513282005584</v>
+        <v>0.06344075106963411</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.01375519724687426</v>
+        <v>0.001686516569793217</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.08367325183489964</v>
+        <v>0.04400681979840963</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.06628654727015497</v>
+        <v>-0.03177284015297677</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.1038400488485184</v>
+        <v>0.08998865316873597</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.1076608492701355</v>
+        <v>0.06055951323218554</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.1052575624617215</v>
+        <v>0.106402300871956</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.07609231776198286</v>
+        <v>0.1393643976495489</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.09352419791309564</v>
+        <v>0.1214506474938383</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.04515688576757353</v>
+        <v>0.113152809445245</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.1059648367164676</v>
+        <v>0.1228129626948439</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.06212453136491664</v>
+        <v>0.1100706243626042</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.07397781964903122</v>
+        <v>0.1059175891276711</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.02925231311441997</v>
+        <v>0.1074616454568698</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0636489263539191</v>
+        <v>0.07428514999740175</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.03834298875144354</v>
+        <v>0.08723394977555679</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.09422799693750453</v>
+        <v>0.1192056528686047</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.06512835693247496</v>
+        <v>0.07849296942844666</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.02762313938606211</v>
+        <v>0.06023049453639933</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.07152515517937479</v>
+        <v>0.08162874474653405</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.05378723006248373</v>
+        <v>0.1169265372436575</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.09222440038558298</v>
+        <v>0.1313758320532932</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.07474736715574892</v>
+        <v>0.1432755771522349</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.06834469093673699</v>
+        <v>0.1278267127057452</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.112775137046527</v>
+        <v>0.1764528688699641</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.1346478267659014</v>
+        <v>0.1784282442284747</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.1228995099279372</v>
+        <v>0.1386878386411119</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.1749139187388738</v>
+        <v>0.1585527953964375</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.1537464781645314</v>
+        <v>0.1899335516588297</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.1168322304173257</v>
+        <v>0.1655147791961848</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.117628620749944</v>
+        <v>0.1919244289187923</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.1142756812637304</v>
+        <v>0.1489859902930727</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.1240787830328509</v>
+        <v>0.1404722737565446</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.1196514228433342</v>
+        <v>0.1596312620864839</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.08760469591796402</v>
+        <v>0.1634720400724113</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.1162594926685582</v>
+        <v>0.1208094984049626</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.09223937205802739</v>
+        <v>0.1308203029618348</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.108767716905853</v>
+        <v>0.1428231822581577</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.09895150224059571</v>
+        <v>0.1986540665304803</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.06916343317078326</v>
+        <v>0.1457080479675751</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.1269046453514811</v>
+        <v>0.1425767805430175</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.1212767258133785</v>
+        <v>0.1740385338385136</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.1311630956289542</v>
+        <v>0.1836066656068076</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.1283877658610505</v>
+        <v>0.1648260787665684</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.1727864218066275</v>
+        <v>0.1900362456230864</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.1804331700035025</v>
+        <v>0.1857714896535764</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.1972071493956711</v>
+        <v>0.2135585357731395</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.1599479261467992</v>
+        <v>0.2137763463774144</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.1384481480334137</v>
+        <v>0.1961591486799229</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.1517014478611186</v>
+        <v>0.2069594294780824</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.1258194145072891</v>
+        <v>0.1432241150103583</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_lex.xlsx
+++ b/Data/Regression/news_index_dire_lex.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1981570144477677</v>
+        <v>0.2115709558780045</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1816518171629132</v>
+        <v>0.1967137232408901</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1698002074761433</v>
+        <v>0.1848050187489833</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1969432854308595</v>
+        <v>0.2021491056480531</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1556063997819</v>
+        <v>0.1623580847710998</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1849775125388257</v>
+        <v>0.1947721796878835</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1625237868828682</v>
+        <v>0.1796726232497617</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2179502250842643</v>
+        <v>0.2121565882622954</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1604503556042303</v>
+        <v>0.1612126327314009</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1607871034155206</v>
+        <v>0.1691586974449372</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.184370624221894</v>
+        <v>0.192214025248928</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1703474667784166</v>
+        <v>0.1753633966885079</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1882354585458069</v>
+        <v>0.2029643059433056</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1775616747338542</v>
+        <v>0.1732610939487426</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1802650454785018</v>
+        <v>0.1966164936763032</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1714857095628375</v>
+        <v>0.1723543237047034</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1675230348811237</v>
+        <v>0.169107715573185</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1453421018923775</v>
+        <v>0.1634524135537428</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1466819159594089</v>
+        <v>0.1446205579866271</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1474236866495024</v>
+        <v>0.1475210076060595</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1393436862974832</v>
+        <v>0.1433880066232986</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1833281683566126</v>
+        <v>0.1820712913695666</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1478655074846048</v>
+        <v>0.1349761967541001</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1763033964215346</v>
+        <v>0.159452481886278</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1936863955824893</v>
+        <v>0.2028241292979623</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1693566448607317</v>
+        <v>0.1849132706650319</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1727263577239028</v>
+        <v>0.1689832132120563</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1671148734104455</v>
+        <v>0.1516534237062932</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1723286648009437</v>
+        <v>0.1739508240039023</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1939579003055655</v>
+        <v>0.1920627326681436</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1676383312129595</v>
+        <v>0.1693578698090273</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1628654972006056</v>
+        <v>0.1652918718786186</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1969063039157287</v>
+        <v>0.1947132019579609</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1559649694877581</v>
+        <v>0.1702145520711143</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1480565744440515</v>
+        <v>0.1557562493486036</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1457091419229701</v>
+        <v>0.1564298026391529</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1544434429494313</v>
+        <v>0.1684166300776704</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1663944969610993</v>
+        <v>0.1634065641003928</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1592354826030443</v>
+        <v>0.1649708491516138</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1475721138833044</v>
+        <v>0.1466066528709965</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1820354122438616</v>
+        <v>0.1731720091226919</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1550691522223958</v>
+        <v>0.1559644698587492</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1702397743494985</v>
+        <v>0.1671277763742755</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1746416801002016</v>
+        <v>0.170467875350738</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.177536398219032</v>
+        <v>0.1659463907335507</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.154860803498917</v>
+        <v>0.1602683847946222</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1691060128005157</v>
+        <v>0.1707861029544556</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1726178669370611</v>
+        <v>0.1806671758337577</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.172448716483277</v>
+        <v>0.1860048958367751</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.16923102345663</v>
+        <v>0.1698025057655081</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1615913246554163</v>
+        <v>0.1664839309770977</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.15267715581456</v>
+        <v>0.1542006630575432</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1539788247316862</v>
+        <v>0.1535558063996783</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1651069164379068</v>
+        <v>0.1726861842517213</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1455140035925207</v>
+        <v>0.1394781636715527</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1506527597780444</v>
+        <v>0.176531628249178</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1640337260243516</v>
+        <v>0.1622406813489249</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1457172221958021</v>
+        <v>0.1536833181159381</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1325566790099702</v>
+        <v>0.1517457783056671</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1645281098190539</v>
+        <v>0.1605573270089834</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1371754294823609</v>
+        <v>0.1508624764394981</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1391690761532075</v>
+        <v>0.1486325722169491</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1336432079256444</v>
+        <v>0.1458472764257654</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1540665730592886</v>
+        <v>0.1619348572859481</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1187711909887488</v>
+        <v>0.1234807745673188</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1496267547090792</v>
+        <v>0.1562137143449694</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1269339297065314</v>
+        <v>0.1412565775961595</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1697050051513893</v>
+        <v>0.1698910768929452</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1572404138029295</v>
+        <v>0.1553934450610041</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1750590893676803</v>
+        <v>0.1747437136216792</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1609393368553966</v>
+        <v>0.1610579399672857</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1229015501007254</v>
+        <v>0.130905880175599</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1752164793038817</v>
+        <v>0.1644834486386521</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.153870075376509</v>
+        <v>0.1653298401346741</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1134100249063384</v>
+        <v>0.1293384233125236</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1420396196608816</v>
+        <v>0.1440509876095911</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1639455605080976</v>
+        <v>0.1562364788647448</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.18373813591591</v>
+        <v>0.1829684963041776</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1559228427871869</v>
+        <v>0.1508495494730465</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1770307932045131</v>
+        <v>0.1705193352729215</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1467528290477769</v>
+        <v>0.1224832272681732</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1471538393086851</v>
+        <v>0.1507938139482183</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1499333779145894</v>
+        <v>0.1472195625864696</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1353000403097711</v>
+        <v>0.1560467811577303</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1004785576276946</v>
+        <v>0.1191910032237676</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1599814589015491</v>
+        <v>0.1793139031842148</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1741100561625191</v>
+        <v>0.1681186973458224</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1253387943625082</v>
+        <v>0.1242266703845493</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1662888827072967</v>
+        <v>0.1729233983835936</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1575152668653787</v>
+        <v>0.1427571237447816</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1145409068712169</v>
+        <v>0.1339748918016219</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.165664533257237</v>
+        <v>0.1532043903247134</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1180665832814654</v>
+        <v>0.1321368682083817</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1483677996125271</v>
+        <v>0.1616067020884683</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.1299625438682613</v>
+        <v>0.1443691993256832</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1238398006247236</v>
+        <v>0.129829204035571</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1537246516021551</v>
+        <v>0.1367575232456183</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.08728093303500377</v>
+        <v>0.1045852074463662</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1747901741544072</v>
+        <v>0.1725821987159404</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1740475577604544</v>
+        <v>0.174331747210666</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1722146847805428</v>
+        <v>0.188225287138517</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1447057544837105</v>
+        <v>0.1509140118622956</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1413750804879749</v>
+        <v>0.149044568437881</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1542801751551819</v>
+        <v>0.1588663900183476</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.157781925762165</v>
+        <v>0.1664026069711316</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1529483728028659</v>
+        <v>0.1555421811008496</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1321764183408796</v>
+        <v>0.1410995976237889</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1656978619092883</v>
+        <v>0.1633470762219194</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1566104601165354</v>
+        <v>0.1536584135753167</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1571810985048797</v>
+        <v>0.1584981257703936</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.170000820509319</v>
+        <v>0.1796852954433254</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1498312561914896</v>
+        <v>0.1410445460973014</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1571197033838568</v>
+        <v>0.1751309191327505</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1781025247281162</v>
+        <v>0.1862024086060931</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1208238891986576</v>
+        <v>0.1311008419489339</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1788320029995438</v>
+        <v>0.1731732574182557</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.2007254143462292</v>
+        <v>0.2091397908015832</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1845710306921231</v>
+        <v>0.1966232876236663</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1501332970476366</v>
+        <v>0.1660429580005319</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1703775742914771</v>
+        <v>0.1774364401592335</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2034627007306384</v>
+        <v>0.2100433058775346</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2522519748015271</v>
+        <v>0.2398567994542674</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1599069158806662</v>
+        <v>0.1652690936743024</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.194625049845342</v>
+        <v>0.1911539888218776</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1729158998263525</v>
+        <v>0.1787846526863533</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1722503824559811</v>
+        <v>0.1761628315387485</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1721879416828314</v>
+        <v>0.1655441925740541</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1616500033805007</v>
+        <v>0.1512707800904464</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1694723765724758</v>
+        <v>0.1731874017137439</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.09436468161593889</v>
+        <v>0.1045389147648202</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.144322389947333</v>
+        <v>0.1357535773984804</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1654118818785244</v>
+        <v>0.1647809087151783</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1977931577763676</v>
+        <v>0.2058988606835364</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1661198439049706</v>
+        <v>0.1607046700313439</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.2109548081098407</v>
+        <v>0.209061523806785</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1456539710751965</v>
+        <v>0.1565538073388203</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1789559204660827</v>
+        <v>0.1771015358963712</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1555527705227404</v>
+        <v>0.151857179907491</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.185831023675158</v>
+        <v>0.1777513966626995</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.144204651820816</v>
+        <v>0.1384664554790374</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1359070640032347</v>
+        <v>0.1393951492869175</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1340986862273201</v>
+        <v>0.133941084985268</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.1149402214328955</v>
+        <v>0.1237012551094157</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1555362072040768</v>
+        <v>0.1490522313758514</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.1581451212994945</v>
+        <v>0.1563457340047939</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.2047496388926681</v>
+        <v>0.1923655054513931</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1713540225374806</v>
+        <v>0.1755250051985453</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1592703069063564</v>
+        <v>0.1514601505092257</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.06316184832417271</v>
+        <v>0.07390887303358586</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.09664317421261663</v>
+        <v>0.1057265395852344</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.1174187533140096</v>
+        <v>0.125585769029822</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1569283133635507</v>
+        <v>0.1498658791796514</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.162479400504574</v>
+        <v>0.1625599361003121</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1395522617925745</v>
+        <v>0.1316633471182228</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.149471656204696</v>
+        <v>0.1740334737371318</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1276581790728139</v>
+        <v>0.1341249847649874</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.1691682639776532</v>
+        <v>0.1838980477403495</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1331503111885201</v>
+        <v>0.128502669711936</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1326145951277942</v>
+        <v>0.141219551864537</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1579912121836163</v>
+        <v>0.1704778031450356</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.201567637556381</v>
+        <v>0.2024384432859312</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.1773456292994511</v>
+        <v>0.1811199925951076</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1792577535080213</v>
+        <v>0.1917578414911585</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.246373269003085</v>
+        <v>0.2470112289649674</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.2293696236109364</v>
+        <v>0.2135979464822361</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.203019826347941</v>
+        <v>0.2002483445523614</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.1839882268232957</v>
+        <v>0.1985812929339185</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2291802289668731</v>
+        <v>0.21944781904386</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.2353675480423482</v>
+        <v>0.2089733676008529</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1869872226313928</v>
+        <v>0.1730090213762447</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1508631274042109</v>
+        <v>0.1545131920338466</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2085060428122548</v>
+        <v>0.2239185206488352</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.1510897673658544</v>
+        <v>0.1664844652540348</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.1455222818783097</v>
+        <v>0.1632014409690971</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.1454118986517489</v>
+        <v>0.1714026869143615</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.2025937720835207</v>
+        <v>0.202616024441877</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.2112065642965907</v>
+        <v>0.2112070565913731</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.1856527773368339</v>
+        <v>0.1991021455039751</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.2005712369543363</v>
+        <v>0.2316919944425161</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.1988628227394098</v>
+        <v>0.1986181125062311</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.1829394583629031</v>
+        <v>0.1934755779231312</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.1664934231669983</v>
+        <v>0.1668921491645526</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1987876068043786</v>
+        <v>0.1871272391094147</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.1904031499560285</v>
+        <v>0.1834438835485226</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.208563229801432</v>
+        <v>0.2208892821103822</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.1976440566696446</v>
+        <v>0.206978060625206</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.1764801934292573</v>
+        <v>0.1932846483252165</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.2151682385629408</v>
+        <v>0.2200087234230341</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1380038177267952</v>
+        <v>0.1529998155852887</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.2044302284893537</v>
+        <v>0.1946802228696723</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.1812176188727901</v>
+        <v>0.1924337172271265</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.2189927261716672</v>
+        <v>0.2216613073780714</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.1884140606251208</v>
+        <v>0.182860652708205</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.173364586720929</v>
+        <v>0.1873492417728117</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.1661554955102748</v>
+        <v>0.154684289780542</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.2192374275025018</v>
+        <v>0.2212240224746553</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.208759568807432</v>
+        <v>0.2073875801063016</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.2254195173847935</v>
+        <v>0.2189085056512647</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.2199014929010133</v>
+        <v>0.2233489601193113</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.2280363853424101</v>
+        <v>0.2203530897848325</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.2313307070716262</v>
+        <v>0.2299378534415513</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.2444389441931645</v>
+        <v>0.2483597937839932</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.2128533854931209</v>
+        <v>0.226976407925465</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.2192368334745332</v>
+        <v>0.2394228495966303</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.2357894931775625</v>
+        <v>0.2390285261850147</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.2163332472275256</v>
+        <v>0.2211176977867246</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.2143771278965857</v>
+        <v>0.2204504998514363</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.2023998433519534</v>
+        <v>0.2176104068736381</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.1865792802838434</v>
+        <v>0.2036874035207147</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.2348260249143813</v>
+        <v>0.2484276121582789</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.2333685241134049</v>
+        <v>0.2472587710784889</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.2118517314290504</v>
+        <v>0.2075358543847236</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.2141654165437694</v>
+        <v>0.214088281429443</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.182140997812569</v>
+        <v>0.1833841326927256</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.1312732432838166</v>
+        <v>0.1315954912652818</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.1304129450391343</v>
+        <v>0.1308619979197296</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.136181028747259</v>
+        <v>0.1439981738379116</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.1908058727938502</v>
+        <v>0.1891822763644466</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.1450349721948221</v>
+        <v>0.1370927405849491</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.1384973464351789</v>
+        <v>0.1348507676384112</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.1477646367375627</v>
+        <v>0.1169509252768466</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1491948262734778</v>
+        <v>0.1503010152366872</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.153652774009992</v>
+        <v>0.137406989647361</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.1622242468661811</v>
+        <v>0.1558143984759383</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.1283434435479806</v>
+        <v>0.1478144502312485</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.172488529521616</v>
+        <v>0.1735684067301412</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.1736721876374825</v>
+        <v>0.1721719315152949</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.1141356465876994</v>
+        <v>0.1192054302834264</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.1759233852273388</v>
+        <v>0.1786121965186543</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.1684525361167673</v>
+        <v>0.1647236634485916</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.1811512531979046</v>
+        <v>0.1841519671298334</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.164115858346227</v>
+        <v>0.1702055176023662</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.1716195986013405</v>
+        <v>0.1716511371589303</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.1651465922270283</v>
+        <v>0.1721010041003137</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.170728071360475</v>
+        <v>0.1772603083682689</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.1325969755657115</v>
+        <v>0.1372024245627088</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.1484449157570617</v>
+        <v>0.1496557435185779</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.1455408711637266</v>
+        <v>0.1452848933380894</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.1658083451299877</v>
+        <v>0.1636962594944403</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.203320764288395</v>
+        <v>0.211683090816612</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.2074729258649991</v>
+        <v>0.210884810518311</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.1992247803637037</v>
+        <v>0.2118325771876809</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.1900810827752683</v>
+        <v>0.1851306357941075</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.2186263046135633</v>
+        <v>0.2279631351454684</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.1742075895933541</v>
+        <v>0.1914327070863963</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.1654385634332991</v>
+        <v>0.1820766729555581</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.1870022255837721</v>
+        <v>0.1982599735635799</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.1978106730851637</v>
+        <v>0.2015169833826175</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.157053059052113</v>
+        <v>0.1884451274804818</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.1737234100105739</v>
+        <v>0.1990381510284941</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.1530536727535272</v>
+        <v>0.1494851199963851</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.1481769704584244</v>
+        <v>0.1562169926029646</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.1647668478675943</v>
+        <v>0.175922690786573</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.1860529102508539</v>
+        <v>0.1883977304843563</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.181243985272938</v>
+        <v>0.1836140535039992</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.1812725537530643</v>
+        <v>0.1841657493490145</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.1708676352230162</v>
+        <v>0.1639845106300503</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.1372769922808859</v>
+        <v>0.1372190073694443</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.1318826230635613</v>
+        <v>0.1426188904825269</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.1602620910167504</v>
+        <v>0.1592432403387773</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.1825181514189717</v>
+        <v>0.1816865289219834</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.1510808873641715</v>
+        <v>0.1587782164787334</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.1376943032021433</v>
+        <v>0.1557342506476364</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.1509620312644777</v>
+        <v>0.1384436815590023</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.1418289037137328</v>
+        <v>0.1582580031982931</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.1428816552996854</v>
+        <v>0.1540288755273923</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.1737243979099493</v>
+        <v>0.15913598322916</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.1216830751019534</v>
+        <v>0.1326424897612599</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.1204608992386024</v>
+        <v>0.1347116536550933</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.1584958662601582</v>
+        <v>0.1508309617000807</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.177568618512902</v>
+        <v>0.1822945108277833</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.1573459465711785</v>
+        <v>0.1744351330910871</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.1059303465417914</v>
+        <v>0.1118169669563949</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0933528162093594</v>
+        <v>0.09651905861786642</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.07271950473753105</v>
+        <v>0.06976213649816104</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.09191909163810658</v>
+        <v>0.09250108799352334</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.07910662354617351</v>
+        <v>0.08694516455639273</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.1037903245181115</v>
+        <v>0.09640550807696072</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.02406600822239613</v>
+        <v>0.01946628673298675</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.05203900504025312</v>
+        <v>0.06421206657307556</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.05134285995237472</v>
+        <v>0.04601850199407682</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0141205467484033</v>
+        <v>0.02400769796925584</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.08836323298854538</v>
+        <v>0.09493480852329225</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.03909414838800801</v>
+        <v>0.06265675745832312</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.004577973584476018</v>
+        <v>0.02548292344681575</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.06344075106963411</v>
+        <v>0.06613197787656436</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.001686516569793217</v>
+        <v>0.01390127122231865</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.04400681979840963</v>
+        <v>0.0592762987973528</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.03177284015297677</v>
+        <v>-0.02394133708041016</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.08998865316873597</v>
+        <v>0.08747428955877801</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.06055951323218554</v>
+        <v>0.05489748236005041</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.106402300871956</v>
+        <v>0.1129052229791399</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.1393643976495489</v>
+        <v>0.139166617635493</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.1214506474938383</v>
+        <v>0.1350760742092228</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.113152809445245</v>
+        <v>0.1261304214790606</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.1228129626948439</v>
+        <v>0.122250256421195</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.1100706243626042</v>
+        <v>0.1130367725369962</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.1059175891276711</v>
+        <v>0.1082677209625455</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.1074616454568698</v>
+        <v>0.10904963499545</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.07428514999740175</v>
+        <v>0.07893205867704292</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.08723394977555679</v>
+        <v>0.1004528294296781</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.1192056528686047</v>
+        <v>0.1193830368225414</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.07849296942844666</v>
+        <v>0.07462078153650355</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.06023049453639933</v>
+        <v>0.06463381767452123</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.08162874474653405</v>
+        <v>0.1006294866530294</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.1169265372436575</v>
+        <v>0.1157823906699045</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.1313758320532932</v>
+        <v>0.1343709581358168</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.1432755771522349</v>
+        <v>0.140957519054924</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.1278267127057452</v>
+        <v>0.1160175825347056</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.1764528688699641</v>
+        <v>0.185682705707421</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.1784282442284747</v>
+        <v>0.1863507654860169</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.1386878386411119</v>
+        <v>0.1375190976985231</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.1585527953964375</v>
+        <v>0.1611559275688934</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.1899335516588297</v>
+        <v>0.180560402749649</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.1655147791961848</v>
+        <v>0.1746295103754341</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.1919244289187923</v>
+        <v>0.1815026798269276</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.1489859902930727</v>
+        <v>0.1597237525483325</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.1404722737565446</v>
+        <v>0.1400028537454263</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.1596312620864839</v>
+        <v>0.1611690449105061</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.1634720400724113</v>
+        <v>0.1639660048258086</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.1208094984049626</v>
+        <v>0.112170575890742</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.1308203029618348</v>
+        <v>0.1401478918695812</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.1428231822581577</v>
+        <v>0.1617246755422629</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.1986540665304803</v>
+        <v>0.2060156031973694</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.1457080479675751</v>
+        <v>0.1489975822332281</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.1425767805430175</v>
+        <v>0.1504206455524037</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.1740385338385136</v>
+        <v>0.1781881188613742</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.1836066656068076</v>
+        <v>0.1917506512084437</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.1648260787665684</v>
+        <v>0.1754078090157236</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.1900362456230864</v>
+        <v>0.1953866389380408</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.1857714896535764</v>
+        <v>0.1956351135109324</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.2135585357731395</v>
+        <v>0.218597828684308</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.2137763463774144</v>
+        <v>0.2241991430331574</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.1961591486799229</v>
+        <v>0.2040962648494924</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.2069594294780824</v>
+        <v>0.2050436088646994</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.1432241150103583</v>
+        <v>0.1573822724442176</v>
       </c>
     </row>
   </sheetData>
